--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1840.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1840.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.141530431712493</v>
+        <v>1.192543387413025</v>
       </c>
       <c r="B1">
-        <v>1.208652351404714</v>
+        <v>3.401607036590576</v>
       </c>
       <c r="C1">
-        <v>1.240836086952378</v>
+        <v>4.34290075302124</v>
       </c>
       <c r="D1">
-        <v>1.588253247724861</v>
+        <v>1.983568429946899</v>
       </c>
       <c r="E1">
-        <v>2.501122184408582</v>
+        <v>0.7617396116256714</v>
       </c>
     </row>
   </sheetData>
